--- a/総合テスト/非機能要件/ST-NF-006_結果.xlsx
+++ b/総合テスト/非機能要件/ST-NF-006_結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3766907-E5F6-415D-9DB8-A270FE2EE9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00933E3E-C457-4E81-953D-69E228F97A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DE31131B-9F59-40ED-9817-A74F04D24B44}"/>
   </bookViews>
@@ -36,20 +36,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>下部にある2025-07-25T10:16:51.769752300の段で注文処理が行われている</t>
+    <t>下部にあるcreatedAtが2025-07-25T10:16:51.769752300の段で注文処理が行われている</t>
     <rPh sb="0" eb="2">
       <t>カブ</t>
     </rPh>
-    <rPh sb="35" eb="36">
+    <rPh sb="45" eb="46">
       <t>ダン</t>
     </rPh>
-    <rPh sb="37" eb="41">
+    <rPh sb="47" eb="51">
       <t>チュウモンショリ</t>
     </rPh>
-    <rPh sb="42" eb="43">
+    <rPh sb="52" eb="53">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OrderID＝１となっていることが分かる</t>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーは発生していないためログは存在しない</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソンザイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E13457-F136-4692-8D93-5B20588F4C1F}">
-  <dimension ref="B21"/>
+  <dimension ref="B21:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -503,6 +520,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -511,6 +538,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -660,24 +704,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEB22D6-0CEA-4B94-B24F-A959AF5FFA3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E364378D-2737-4E8E-80E0-EA81C9FB49EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9C62F3E-04BE-41AC-A123-A6CD03960122}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -693,28 +744,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E364378D-2737-4E8E-80E0-EA81C9FB49EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEB22D6-0CEA-4B94-B24F-A959AF5FFA3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>